--- a/docs/Checklist-Test/Checklist.xlsx
+++ b/docs/Checklist-Test/Checklist.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A045D211-041D-4903-AA98-5893E3DA5A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.w.e/Desktop/interactive wall/InteractiveWall/docs/Checklist-Test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D342888-F851-1A45-A2A6-70356E79F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Gecontroleerde Component</t>
   </si>
@@ -64,13 +69,25 @@
   </si>
   <si>
     <t>het geleid</t>
+  </si>
+  <si>
+    <t>4. ESP32</t>
+  </si>
+  <si>
+    <t>alles werkt, ook via apparte voeding</t>
+  </si>
+  <si>
+    <t>5. Piano hardware</t>
+  </si>
+  <si>
+    <t>er komen inputs binnen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -140,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +481,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -475,12 +492,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -491,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -499,6 +516,28 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>5</v>
       </c>
     </row>
